--- a/Entertreadeligible.xlsx
+++ b/Entertreadeligible.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -65,9 +65,6 @@
   </x:si>
   <x:si>
     <x:t>Url should be launched</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cases</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -598,9 +595,9 @@
     <x:col min="3" max="3" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="14.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="40.130625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="60.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.700625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="40.130625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="60.270625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -652,17 +649,15 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="G2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="H2" s="0" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
@@ -673,16 +668,16 @@
       <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s"/>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
       <x:c r="K3" s="0" t="s"/>
@@ -692,16 +687,16 @@
       <x:c r="B4" s="0" t="s"/>
       <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="H4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s"/>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
       <x:c r="K4" s="0" t="s"/>
@@ -711,16 +706,16 @@
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="E5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s"/>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
       <x:c r="K5" s="0" t="s"/>
@@ -730,16 +725,16 @@
       <x:c r="B6" s="0" t="s"/>
       <x:c r="C6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s">
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G6" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="G6" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s"/>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
       <x:c r="K6" s="0" t="s"/>
@@ -749,16 +744,16 @@
       <x:c r="B7" s="0" t="s"/>
       <x:c r="C7" s="0" t="s"/>
       <x:c r="D7" s="0" t="s"/>
-      <x:c r="E7" s="0" t="s">
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="F7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G7" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F7" s="0" t="s">
+      <x:c r="H7" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="G7" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s"/>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
       <x:c r="K7" s="0" t="s"/>
@@ -768,16 +763,16 @@
       <x:c r="B8" s="0" t="s"/>
       <x:c r="C8" s="0" t="s"/>
       <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s">
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G8" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F8" s="0" t="s">
+      <x:c r="H8" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s"/>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
       <x:c r="K8" s="0" t="s"/>
@@ -787,16 +782,16 @@
       <x:c r="B9" s="0" t="s"/>
       <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
+      <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G9" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s"/>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
       <x:c r="K9" s="0" t="s"/>
@@ -806,16 +801,16 @@
       <x:c r="B10" s="0" t="s"/>
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s">
+      <x:c r="E10" s="0" t="s"/>
+      <x:c r="F10" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G10" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="F10" s="0" t="s">
+      <x:c r="H10" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s"/>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
       <x:c r="K10" s="0" t="s"/>
@@ -825,16 +820,16 @@
       <x:c r="B11" s="0" t="s"/>
       <x:c r="C11" s="0" t="s"/>
       <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="G11" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s"/>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
       <x:c r="K11" s="0" t="s"/>
@@ -844,16 +839,16 @@
       <x:c r="B12" s="0" t="s"/>
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="F12" s="0" t="s">
+      <x:c r="H12" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s"/>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
@@ -863,16 +858,16 @@
       <x:c r="B13" s="0" t="s"/>
       <x:c r="C13" s="0" t="s"/>
       <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s">
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="F13" s="0" t="s">
+      <x:c r="H13" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s"/>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
       <x:c r="K13" s="0" t="s"/>
@@ -882,16 +877,16 @@
       <x:c r="B14" s="0" t="s"/>
       <x:c r="C14" s="0" t="s"/>
       <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s">
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="F14" s="0" t="s">
+      <x:c r="H14" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s"/>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
       <x:c r="K14" s="0" t="s"/>
@@ -901,16 +896,16 @@
       <x:c r="B15" s="0" t="s"/>
       <x:c r="C15" s="0" t="s"/>
       <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s">
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="F15" s="0" t="s">
+      <x:c r="H15" s="0" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s"/>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
       <x:c r="K15" s="0" t="s"/>
@@ -920,16 +915,16 @@
       <x:c r="B16" s="0" t="s"/>
       <x:c r="C16" s="0" t="s"/>
       <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s">
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="F16" s="0" t="s">
+      <x:c r="H16" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s"/>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
       <x:c r="K16" s="0" t="s"/>
@@ -939,16 +934,16 @@
       <x:c r="B17" s="0" t="s"/>
       <x:c r="C17" s="0" t="s"/>
       <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
+      <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s"/>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
       <x:c r="K17" s="0" t="s"/>
@@ -958,16 +953,16 @@
       <x:c r="B18" s="0" t="s"/>
       <x:c r="C18" s="0" t="s"/>
       <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s">
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F18" s="0" t="s">
+      <x:c r="H18" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s"/>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
       <x:c r="K18" s="0" t="s"/>
@@ -977,16 +972,16 @@
       <x:c r="B19" s="0" t="s"/>
       <x:c r="C19" s="0" t="s"/>
       <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
+      <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s"/>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
       <x:c r="K19" s="0" t="s"/>
